--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144318.376365524</v>
+        <v>1117881.821055574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6303303.056941398</v>
+        <v>6303303.056941399</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>39.04589723677577</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28.91441228162032</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>174.144071639526</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>153.7680905114898</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>61.61310638799169</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>48.32160706581262</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>174.144071639526</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>16.99775308803923</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>24.69913347639148</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>189.476771250476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>205.5178444382804</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.552930681163994</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.336946277399546</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,67 +1841,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>106.0311077711178</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,70 +2081,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>49.31110394229523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>42.22328723610124</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.19305615617957</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>9.245357950761532</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>78.93728785508998</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>52.24924162573038</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>73.0451291102496</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,64 +2801,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>52.75038766893559</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,28 +3071,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>76.79360427493792</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>62.31949669711187</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>241.0142888776591</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>49.32998539960094</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.854229992460928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>81.94696239689883</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>40.58013988212374</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>138.9350621022359</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.89338632599108</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.28312463522772</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4113,13 +4113,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.0946480769296</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>463.0946480769296</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>463.0946480769296</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
         <v>28.51141680214578</v>
@@ -4340,7 +4340,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.4775954922324</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="C3" t="n">
-        <v>614.4775954922324</v>
+        <v>204.8161374554811</v>
       </c>
       <c r="D3" t="n">
-        <v>465.5431858309811</v>
+        <v>55.88172779422987</v>
       </c>
       <c r="E3" t="n">
-        <v>306.3057308255256</v>
+        <v>55.88172779422987</v>
       </c>
       <c r="F3" t="n">
-        <v>159.7711728524106</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>159.7711728524106</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>46.40203725998988</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>626.8294255367553</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X3" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y3" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4528,10 +4528,10 @@
         <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>230.9807105651552</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>230.9807105651552</v>
       </c>
       <c r="D5" t="n">
-        <v>614.4775954922324</v>
+        <v>230.9807105651552</v>
       </c>
       <c r="E5" t="n">
-        <v>614.4775954922324</v>
+        <v>230.9807105651552</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>391.4265026099945</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>183.8327203491052</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4610,7 +4610,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>79.43102120581955</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,19 +4650,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4744,31 +4744,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F8" t="n">
-        <v>192.3445302212503</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4805,16 +4805,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y8" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="V8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="W8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="X8" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>272.8449139228332</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C9" t="n">
-        <v>255.6754663591572</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7410566979059</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4887,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
         <v>435.9652341458732</v>
@@ -4908,25 +4908,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5063,25 +5063,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
         <v>224.0352098159517</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>289.0480181529386</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C12" t="n">
-        <v>289.0480181529386</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="D12" t="n">
-        <v>289.0480181529386</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="E12" t="n">
-        <v>129.8105631474831</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="F12" t="n">
-        <v>129.8105631474831</v>
+        <v>293.4900082379903</v>
       </c>
       <c r="G12" t="n">
-        <v>129.8105631474831</v>
+        <v>154.7591828206058</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>41.39004722818514</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5145,25 +5145,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>457.2633551730066</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H14" t="n">
         <v>236.1051990630351</v>
@@ -5279,16 +5279,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>465.5431858309811</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>306.3057308255256</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>159.7711728524106</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>21.04034743502606</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>21.04034743502606</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,49 +5358,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>812.6401188870615</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>581.8438274645554</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>432.9094178033041</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>273.6719627978486</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>127.1374048247336</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5601,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5637,7 +5637,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,19 +5698,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.84447166430675</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C21" t="n">
-        <v>69.84447166430675</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>405.0846510026181</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>405.0846510026181</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>853.5488806587123</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>407.5490526758962</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>231.2956098588302</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>560.8810491026891</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>317.4322724585891</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="28">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>910.7739356430245</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>737.3565910936934</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>535.1699964524594</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="W30" t="n">
-        <v>116.7808214123601</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="X30" t="n">
-        <v>116.7808214123601</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>306.9463781888485</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6658,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D33" t="n">
-        <v>96.85044035762476</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E33" t="n">
-        <v>96.85044035762476</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,7 +6786,7 @@
         <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>626.5212949514515</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>626.5212949514515</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>626.5212949514515</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>626.5212949514515</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6880,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E35" t="n">
         <v>962.2293816994886</v>
@@ -6980,7 +6980,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y36" t="n">
-        <v>510.883919072659</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7117,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W38" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V38" t="n">
+      <c r="Y38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>310.5702840197694</v>
+        <v>923.0671152256627</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.8099852548154</v>
+        <v>715.3068164607089</v>
       </c>
     </row>
     <row r="40">
@@ -7351,13 +7351,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7421,10 +7421,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="V41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="W41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="X41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y41" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="V41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="W41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7470,43 +7470,43 @@
         <v>305.7142837842288</v>
       </c>
       <c r="D42" t="n">
-        <v>156.7798741229775</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>166.9834583668443</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7585,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7670,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>773.3005447882451</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>571.1139501470112</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>363.520167886122</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>363.520167886122</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W45" t="n">
-        <v>363.520167886122</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.9263856252326</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="46">
@@ -7988,10 +7988,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>269.7148239424616</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,7 +8465,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,13 +11069,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>139.0491612396719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,10 +11154,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11306,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,13 +11379,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23303,28 +23303,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677488</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>64.6974993750236</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.20592452682834</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>4.958045132125505</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1346420369061</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23577,22 +23577,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>84.84370217025108</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90.82088787524359</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23823,16 +23823,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>31.31240939209285</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>287.0492336280195</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,13 +24026,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,22 +24051,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>98.13396162234352</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>102.8459251572826</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,28 +24285,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4378131530763</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>147.0040942258848</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,10 +24382,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>151.7265451152921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,13 +24494,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>85.09427553748026</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>159.7554580391757</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24762,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>47.40744648370755</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.1580142581785</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,28 +24959,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>68.27560811844596</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>137.8452319977097</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>165.8617568640524</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>98.11508016503781</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.8284657848434</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25442,19 +25442,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>84.58622125296851</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,10 +25485,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,10 +25530,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>165.1928453213537</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25591,16 +25591,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25628,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,7 +25673,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25682,7 +25682,7 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>220.1946534677488</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25710,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>18.71001835316503</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>53.34205791050538</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25807,10 +25807,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25825,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25865,7 +25865,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.6534551423523</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>123.4000464686101</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,13 +26001,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407212.7375919081</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919081</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386608.2508296753</v>
+        <v>386608.2508296752</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
@@ -26326,16 +26326,16 @@
         <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="H2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="H2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="I2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="K2" t="n">
         <v>191084.7734110322</v>
@@ -26344,10 +26344,10 @@
         <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="N2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>191084.7734110322</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="C4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="D4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55619.83784308684</v>
+        <v>52532.697924459</v>
       </c>
       <c r="C6" t="n">
-        <v>124493.5944247766</v>
+        <v>121406.4545061487</v>
       </c>
       <c r="D6" t="n">
-        <v>124493.5944247766</v>
+        <v>121406.4545061488</v>
       </c>
       <c r="E6" t="n">
-        <v>155981.3390104331</v>
+        <v>152894.1990918051</v>
       </c>
       <c r="F6" t="n">
-        <v>155981.3390104332</v>
+        <v>152894.1990918052</v>
       </c>
       <c r="G6" t="n">
-        <v>153041.210473726</v>
+        <v>149787.3720321227</v>
       </c>
       <c r="H6" t="n">
-        <v>162770.2534478932</v>
+        <v>159516.4150062898</v>
       </c>
       <c r="I6" t="n">
-        <v>162770.2534478932</v>
+        <v>159516.4150062898</v>
       </c>
       <c r="J6" t="n">
-        <v>108997.7425576836</v>
+        <v>105743.9041160803</v>
       </c>
       <c r="K6" t="n">
-        <v>162770.2534478931</v>
+        <v>159516.4150062898</v>
       </c>
       <c r="L6" t="n">
-        <v>162770.2534478932</v>
+        <v>159516.4150062898</v>
       </c>
       <c r="M6" t="n">
-        <v>162770.2534478932</v>
+        <v>159516.4150062898</v>
       </c>
       <c r="N6" t="n">
-        <v>162770.2534478931</v>
+        <v>159516.4150062898</v>
       </c>
       <c r="O6" t="n">
-        <v>155981.3390104331</v>
+        <v>152894.1990918052</v>
       </c>
       <c r="P6" t="n">
-        <v>155981.3390104331</v>
+        <v>152894.1990918051</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8417968937021</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>362.7286599867866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,10 +27424,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>106.0233151566081</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>60.48222056979476</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>208.5897700239546</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>56.70779905891607</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>83.4561060053922</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,13 +27752,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>184.4789800836126</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>216.2129902061594</v>
       </c>
       <c r="F8" t="n">
+        <v>201.358201303431</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.158665875609</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>155.7107459002765</v>
+        <v>65.44409070128151</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34708,10 +34708,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>127.1185794980172</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,7 +35185,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M9" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37874,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,13 +38026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117881.821055574</v>
+        <v>1118665.966993602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6303303.056941399</v>
+        <v>6303303.056941398</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>39.04589723677577</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.1307326477868</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>174.144071639526</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,58 +910,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>174.144071639526</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -978,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>42.7910001433192</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>48.32160706581262</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1130,64 +1132,64 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>162.1947822849135</v>
+      </c>
+      <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>165.7173798661024</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>101.8727551529257</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,17 +1369,17 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1421,10 +1423,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U11" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.69913347639148</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>28.72815266929527</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>205.5178444382804</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>119.9275509417715</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1704,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.552930681163994</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.88143347497287</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>42.22328723610124</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>9.245357950761532</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>78.93728785508998</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>52.24924162573038</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.75038766893559</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>48.48515950437162</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2956,61 +2958,61 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3071,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>66.59358938417571</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>62.31949669711187</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>49.32998539960094</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>94.4876644797814</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,49 +3429,49 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -3636,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>8.051864102726121</v>
       </c>
       <c r="X39" t="n">
-        <v>40.58013988212374</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>205.5178444382804</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3825,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>128.7350472114737</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.89338632599108</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3974,58 +3976,58 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C44" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4068,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>14.69006202085835</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.91422817269779</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>50.91422817269779</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>50.91422817269779</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>50.91422817269779</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="U2" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="V2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X2" t="n">
-        <v>199.2900309704538</v>
-      </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.2691667366082</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="C3" t="n">
-        <v>204.8161374554811</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="D3" t="n">
-        <v>55.88172779422987</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="E3" t="n">
-        <v>55.88172779422987</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4422,37 +4424,37 @@
         <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.4845037566762</v>
+        <v>451.5522830545109</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4528,10 +4530,10 @@
         <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.9807105651552</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>230.9807105651552</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
-        <v>230.9807105651552</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E5" t="n">
-        <v>230.9807105651552</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4601,10 +4603,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
         <v>614.4775954922324</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>610.6328082650543</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>610.6328082650543</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>142.2888212580996</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>345.7514872519972</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="V6" t="n">
-        <v>599.8443290969091</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="W6" t="n">
-        <v>392.2505468360198</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>778.8481452851224</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>778.8481452851224</v>
       </c>
     </row>
     <row r="7">
@@ -4787,19 +4789,19 @@
         <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4925204373003</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>399.9383124821396</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4817,7 +4819,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>614.4775954922324</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C9" t="n">
-        <v>506.1297083336119</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D9" t="n">
-        <v>506.1297083336119</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4890,10 +4892,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4908,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>130.5646958002688</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4993,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>255.5008658160403</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C12" t="n">
-        <v>440.0245662111054</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D12" t="n">
-        <v>440.0245662111054</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
-        <v>440.0245662111054</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>293.4900082379903</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>154.7591828206058</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>41.39004722818514</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>793.0530417235304</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5218,31 +5220,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
         <v>236.1051990630351</v>
@@ -5279,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>700.9324374078979</v>
       </c>
       <c r="D15" t="n">
-        <v>465.5431858309811</v>
+        <v>551.9980277466466</v>
       </c>
       <c r="E15" t="n">
-        <v>306.3057308255256</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="F15" t="n">
-        <v>159.7711728524106</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G15" t="n">
-        <v>21.04034743502606</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
-        <v>21.04034743502606</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5400,7 +5402,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5455,31 +5457,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5698,19 +5700,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>405.0846510026181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>405.0846510026181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5932,22 +5934,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E23" t="n">
-        <v>962.2293816994886</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407.5490526758962</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>407.5490526758962</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>407.5490526758962</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>248.3115976704407</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>248.3115976704407</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U24" t="n">
-        <v>407.5490526758962</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V24" t="n">
-        <v>407.5490526758962</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W24" t="n">
-        <v>407.5490526758962</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X24" t="n">
-        <v>407.5490526758962</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>407.5490526758962</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>231.2956098588302</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>72.05815485337473</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>72.05815485337473</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>306.9463781888485</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>910.7739356430245</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>737.3565910936934</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="T30" t="n">
-        <v>535.1699964524594</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="U30" t="n">
-        <v>306.9463781888485</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="V30" t="n">
-        <v>306.9463781888485</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W30" t="n">
-        <v>306.9463781888485</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X30" t="n">
-        <v>306.9463781888485</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y30" t="n">
-        <v>306.9463781888485</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6719,25 +6721,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
         <v>262.7299197543128</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>418.6697947459187</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C33" t="n">
-        <v>418.6697947459187</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D33" t="n">
-        <v>418.6697947459187</v>
+        <v>245.784850018876</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>86.54739501342053</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>626.5212949514515</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>626.5212949514515</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>626.5212949514515</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>626.5212949514515</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>418.6697947459187</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>418.6697947459187</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D36" t="n">
-        <v>577.9072497513741</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E36" t="n">
-        <v>418.6697947459187</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7205,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>547.0914794406409</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C39" t="n">
-        <v>372.6384501595139</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D39" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E39" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
         <v>110.334904905842</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7284,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="X39" t="n">
-        <v>923.0671152256627</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y39" t="n">
-        <v>715.3068164607089</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7351,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7473,19 +7475,19 @@
         <v>305.7142837842288</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7142837842288</v>
+        <v>146.4768287787733</v>
       </c>
       <c r="F42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>166.9834583668443</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.81546818692397</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,43 +7657,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7718,7 @@
         <v>31.27987404077794</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7761,10 +7763,10 @@
         <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>31.27987404077794</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>31.27987404077794</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
         <v>31.27987404077794</v>
@@ -7988,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>139.0491612396719</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,13 +8540,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10679,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U11" t="n">
-        <v>220.1946534677488</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>64.6974993750236</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>142.9550184345426</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>4.958045132125505</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>242.1346420369061</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>52.78094804654421</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23592,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>84.84370217025108</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>26.5151993764422</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,13 +24028,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>102.8459251572826</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,16 +24256,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.4378131530763</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>147.0040942258848</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>85.09427553748026</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.40744648370755</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>123.1980115994662</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24959,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>78.47562300920816</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>137.8452319977097</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25172,7 +25174,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>98.11508016503781</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>17.74777975671506</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25445,19 +25447,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25524,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>243.6431190581935</v>
       </c>
       <c r="X39" t="n">
-        <v>165.1928453213537</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25573,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,16 +25593,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>159.7550473327271</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>191.2741794849307</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25713,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>16.33416518191015</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>53.34205791050538</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>344.1125915454646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25956,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>122.6534551423523</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>97.54538221563811</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26001,13 +26003,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386608.2508296752</v>
+        <v>386608.2508296751</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407212.7375919081</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26329,22 +26331,22 @@
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="K2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>191084.7734110323</v>
-      </c>
-      <c r="K2" t="n">
-        <v>191084.7734110322</v>
       </c>
       <c r="L2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
         <v>191084.7734110323</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.4782239668</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="C4" t="n">
         <v>304569.4782239668</v>
@@ -26445,7 +26447,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="M4" t="n">
         <v>16914.68964098084</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52532.697924459</v>
+        <v>52532.69792445869</v>
       </c>
       <c r="C6" t="n">
         <v>121406.4545061487</v>
       </c>
       <c r="D6" t="n">
-        <v>121406.4545061488</v>
+        <v>121406.4545061487</v>
       </c>
       <c r="E6" t="n">
         <v>152894.1990918051</v>
@@ -26558,10 +26560,10 @@
         <v>159516.4150062898</v>
       </c>
       <c r="O6" t="n">
+        <v>152894.1990918051</v>
+      </c>
+      <c r="P6" t="n">
         <v>152894.1990918052</v>
-      </c>
-      <c r="P6" t="n">
-        <v>152894.1990918051</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8417968937021</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0233151566081</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>30.81064943318802</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836632</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208.5897700239546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>241.158665875609</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27673,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -27698,16 +27700,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>57.36683400932393</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>184.4789800836126</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>216.2129902061594</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>65.44409070128151</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27982,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>103.9002300505518</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28029,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34708,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4947814597977008</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N9" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>148.1480627106907</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>55.51629994036219</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,7 +37399,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1118665.966993602</v>
+        <v>1049005.631319075</v>
       </c>
     </row>
     <row r="7">
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>143.7773912969451</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100.8474272684478</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.1307326477868</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>174.144071639526</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>42.7910001433192</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>144.1027729299027</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>136.9013455552336</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>162.1947822849135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>148.87555174829</v>
       </c>
       <c r="U9" t="n">
         <v>205.5178444382804</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>101.8727551529257</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>9.211010870930394</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>28.72815266929527</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>140.7340398800815</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1627,52 +1627,52 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C15" t="n">
-        <v>119.9275509417715</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.809496073036132</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,17 +2083,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>29.79900896488251</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.245357950761532</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,11 +2563,11 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>63.88882306452221</v>
+        <v>138.0190018740686</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.48515950437162</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>66.59358938417571</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>94.4876644797814</v>
+        <v>84.96471228424694</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>8.051864102726121</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>128.7350472114737</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>51.90280359853562</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451.5522830545109</v>
+        <v>305.0177250813958</v>
       </c>
       <c r="C3" t="n">
-        <v>277.0992537733839</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D3" t="n">
-        <v>277.0992537733839</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E3" t="n">
-        <v>277.0992537733839</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
         <v>130.5646958002688</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>451.5522830545109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>451.5522830545109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>451.5522830545109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>451.5522830545109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y3" t="n">
-        <v>451.5522830545109</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
         <v>16.44142755506243</v>
@@ -4509,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
-        <v>192.3445302212503</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>610.6328082650543</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="C6" t="n">
-        <v>610.6328082650543</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="D6" t="n">
-        <v>461.6983986038031</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="E6" t="n">
-        <v>302.4609435983476</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>155.9263856252326</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4652,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>778.8481452851224</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>778.8481452851224</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>778.8481452851224</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>778.8481452851224</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>778.8481452851224</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W6" t="n">
-        <v>778.8481452851224</v>
+        <v>474.3264266170364</v>
       </c>
       <c r="X6" t="n">
-        <v>778.8481452851224</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="Y6" t="n">
-        <v>778.8481452851224</v>
+        <v>266.7326443561471</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4755,22 +4755,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="F8" t="n">
-        <v>399.9383124821396</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="G8" t="n">
+        <v>443.6989813239244</v>
+      </c>
+      <c r="H8" t="n">
         <v>236.1051990630351</v>
-      </c>
-      <c r="H8" t="n">
-        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
         <v>28.51141680214578</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.5646958002688</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="C9" t="n">
-        <v>130.5646958002688</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="D9" t="n">
-        <v>130.5646958002688</v>
+        <v>315.1638406306881</v>
       </c>
       <c r="E9" t="n">
-        <v>130.5646958002688</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F9" t="n">
-        <v>130.5646958002688</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
         <v>17.19556020784815</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>671.6920325528287</v>
       </c>
       <c r="U9" t="n">
-        <v>441.0602509429012</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="V9" t="n">
-        <v>441.0602509429012</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="W9" t="n">
-        <v>441.0602509429012</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="X9" t="n">
-        <v>338.1584780611581</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="Y9" t="n">
-        <v>130.5646958002688</v>
+        <v>464.0982502919394</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5071,22 +5071,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175.6788825605179</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="C12" t="n">
-        <v>175.6788825605179</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5129,16 +5129,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>793.0530417235304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>590.8664470822965</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>383.2726648214073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>175.6788825605179</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>175.6788825605179</v>
+        <v>472.3219996537662</v>
       </c>
       <c r="X12" t="n">
-        <v>175.6788825605179</v>
+        <v>472.3219996537662</v>
       </c>
       <c r="Y12" t="n">
-        <v>175.6788825605179</v>
+        <v>472.3219996537662</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>700.9324374078979</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>551.9980277466466</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>392.7605727411911</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>246.2260147680761</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>345.7514872519972</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>549.2141532458947</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5393,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>962.2293816994886</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y17" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="18">
@@ -5600,40 +5600,40 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X18" t="n">
         <v>19.28114311021272</v>
@@ -5709,10 +5709,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,22 +5858,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5952,10 +5952,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
         <v>20.03527576299844</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>853.5488806587123</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6168,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>824.6440223045063</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>596.4204040408954</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>596.4204040408954</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>813.9127174732475</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>813.9127174732475</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>813.9127174732475</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>813.9127174732475</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>570.4639408291474</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>570.4639408291474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>245.784850018876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>86.54739501342053</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D36" t="n">
-        <v>205.7769902389545</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E36" t="n">
-        <v>205.7769902389545</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="F36" t="n">
-        <v>205.7769902389545</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="G36" t="n">
-        <v>205.7769902389545</v>
+        <v>105.1040848114723</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.787934186969</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>492.5482329519229</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X39" t="n">
-        <v>492.5482329519229</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.787934186969</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>47.90708355515102</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>146.4768287787733</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7493,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.27987404077794</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>31.27987404077794</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>31.27987404077794</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>31.27987404077794</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>31.27987404077794</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>31.27987404077794</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7733,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>142.2888212580996</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>769.6443034111664</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="X45" t="n">
-        <v>31.27987404077794</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.27987404077794</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="46">
@@ -7830,16 +7830,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
         <v>16.44142755506243</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8704,7 +8704,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8777,10 +8777,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8941,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>265.6729592778915</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11396,7 +11396,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8848386932009</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23387,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>142.9550184345426</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>110.9609432808381</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23515,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23551,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C15" t="n">
-        <v>52.78094804654421</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>207.2105735132092</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23949,13 +23949,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23989,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>209.6141974444038</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>141.8841621389553</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>109.1580142581785</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4378131530763</v>
+        <v>107.2991603648583</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,16 +24572,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>136.2759056302994</v>
+        <v>62.14572682075297</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24733,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>129.0278429749881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>123.1980115994662</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>345.9756526602163</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>78.47562300920816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25046,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>17.74777975671506</v>
+        <v>27.27073195224952</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25444,16 +25444,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>243.6431190581935</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25575,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3759156176843</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,28 +25630,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>191.2741794849307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25715,10 +25715,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>16.33416518191015</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,28 +25912,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25961,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>97.54538221563811</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>119.7803675053022</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386608.2508296752</v>
+        <v>386608.2508296751</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407212.7375919082</v>
+        <v>407212.7375919083</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>407212.7375919083</v>
+        <v>407212.7375919082</v>
       </c>
     </row>
     <row r="15">
@@ -26322,7 +26322,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="F2" t="n">
         <v>181421.2881101714</v>
@@ -26334,16 +26334,16 @@
         <v>191084.7734110323</v>
       </c>
       <c r="I2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="J2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="K2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="K2" t="n">
-        <v>191084.7734110323</v>
-      </c>
-      <c r="L2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
         <v>191084.7734110323</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.4782239669</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="C4" t="n">
         <v>304569.4782239668</v>
@@ -26447,7 +26447,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
         <v>16914.68964098084</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52532.69792445869</v>
+        <v>52532.69792445875</v>
       </c>
       <c r="C6" t="n">
         <v>121406.4545061487</v>
@@ -26530,40 +26530,40 @@
         <v>121406.4545061487</v>
       </c>
       <c r="E6" t="n">
-        <v>152894.1990918051</v>
+        <v>140256.0369369446</v>
       </c>
       <c r="F6" t="n">
-        <v>152894.1990918052</v>
+        <v>140256.0369369446</v>
       </c>
       <c r="G6" t="n">
-        <v>149787.3720321227</v>
+        <v>137569.3614120822</v>
       </c>
       <c r="H6" t="n">
-        <v>159516.4150062898</v>
+        <v>147298.4043862493</v>
       </c>
       <c r="I6" t="n">
-        <v>159516.4150062898</v>
+        <v>147298.4043862493</v>
       </c>
       <c r="J6" t="n">
-        <v>105743.9041160803</v>
+        <v>93525.89349603986</v>
       </c>
       <c r="K6" t="n">
-        <v>159516.4150062898</v>
+        <v>147298.4043862493</v>
       </c>
       <c r="L6" t="n">
-        <v>159516.4150062898</v>
+        <v>147298.4043862493</v>
       </c>
       <c r="M6" t="n">
-        <v>159516.4150062898</v>
+        <v>147298.4043862493</v>
       </c>
       <c r="N6" t="n">
-        <v>159516.4150062898</v>
+        <v>147298.4043862493</v>
       </c>
       <c r="O6" t="n">
-        <v>152894.1990918051</v>
+        <v>140256.0369369446</v>
       </c>
       <c r="P6" t="n">
-        <v>152894.1990918052</v>
+        <v>140256.0369369447</v>
       </c>
     </row>
   </sheetData>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>263.0986544447663</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,22 +27432,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>65.68575638141958</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27508,13 +27508,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>30.81064943318802</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>36.78129424836632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>241.158665875609</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>30.54577751176708</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>57.36683400932393</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>107.5922102310169</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>245.0290245170282</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>253.1079552302216</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27937,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27982,10 +27982,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>51.2891769465316</v>
       </c>
       <c r="U9" t="n">
         <v>20.42353764269441</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>103.9002300505518</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35424,7 +35424,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35661,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N44" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N44" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>127.1185794980173</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
